--- a/xlsx/五月花号_intext.xlsx
+++ b/xlsx/五月花号_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>五月花号</t>
   </si>
@@ -29,7 +29,7 @@
     <t>1620年</t>
   </si>
   <si>
-    <t>政策_政策_美國_五月花号</t>
+    <t>政策_政策_美国_五月花号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E</t>
   </si>
   <si>
-    <t>馬薩諸塞</t>
+    <t>马萨诸塞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E4%B8%B9</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B1%88%E9%AD%9A%E8%A7%92</t>
   </si>
   <si>
-    <t>鱈魚角</t>
+    <t>鳕鱼角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E7%95%A5%E5%8E%86</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>弗吉尼亞公司</t>
+    <t>弗吉尼亚公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E6%95%A6</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%A7%E7%93%A6</t>
   </si>
   <si>
-    <t>日內瓦</t>
+    <t>日内瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%87%91%E6%BC%A2</t>
   </si>
   <si>
-    <t>白金漢</t>
+    <t>白金汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E4%B8%B9</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E9%81%9C%E6%B2%B3</t>
   </si>
   <si>
-    <t>哈德遜河</t>
+    <t>哈德逊河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E8%8C%85%E6%96%AF</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E8%99%9F%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>五月花號公約</t>
+    <t>五月花号公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1630%E5%B9%B4</t>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E5%8F%B7%E5%85%AC%E7%BA%A6</t>
-  </si>
-  <si>
-    <t>五月花号公约</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1861,7 @@
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
